--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>0.1203174574242425</v>
+        <v>0.2074248447425</v>
       </c>
       <c r="R2">
-        <v>0.1203174574242425</v>
+        <v>0.82969937897</v>
       </c>
       <c r="S2">
-        <v>4.169751680146067E-05</v>
+        <v>6.182767971294544E-05</v>
       </c>
       <c r="T2">
-        <v>4.169751680146067E-05</v>
+        <v>2.801960677618065E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>30.25834013731979</v>
+        <v>0.007362348530166666</v>
       </c>
       <c r="R3">
-        <v>30.25834013731979</v>
+        <v>0.044174091181</v>
       </c>
       <c r="S3">
-        <v>0.01048640549152751</v>
+        <v>2.194514969618547E-06</v>
       </c>
       <c r="T3">
-        <v>0.01048640549152751</v>
+        <v>1.491794131656838E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H4">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I4">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J4">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>37.75682995699453</v>
+        <v>31.575435083863</v>
       </c>
       <c r="R4">
-        <v>37.75682995699453</v>
+        <v>189.452610503178</v>
       </c>
       <c r="S4">
-        <v>0.01308510074269951</v>
+        <v>0.009411774609668933</v>
       </c>
       <c r="T4">
-        <v>0.01308510074269951</v>
+        <v>0.006397965074542858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H5">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I5">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J5">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>0.395807753973507</v>
+        <v>38.58386967164033</v>
       </c>
       <c r="R5">
-        <v>0.395807753973507</v>
+        <v>231.503218029842</v>
       </c>
       <c r="S5">
-        <v>0.0001371721180349122</v>
+        <v>0.01150079750140665</v>
       </c>
       <c r="T5">
-        <v>0.0001371721180349122</v>
+        <v>0.00781804747723106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H6">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I6">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J6">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>99.54071424971657</v>
+        <v>0.175777338594</v>
       </c>
       <c r="R6">
-        <v>99.54071424971657</v>
+        <v>1.054664031564</v>
       </c>
       <c r="S6">
-        <v>0.03449707709681585</v>
+        <v>5.239442268777087E-05</v>
       </c>
       <c r="T6">
-        <v>0.03449707709681585</v>
+        <v>3.561684170728198E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,619 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H7">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I7">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J7">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2502954250811</v>
+        <v>0.320495</v>
       </c>
       <c r="N7">
-        <v>59.2502954250811</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O7">
-        <v>0.5541433886170396</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P7">
-        <v>0.5541433886170396</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q7">
-        <v>124.2084597062513</v>
+        <v>0.2806363188300001</v>
       </c>
       <c r="R7">
-        <v>124.2084597062513</v>
+        <v>1.68381791298</v>
       </c>
       <c r="S7">
-        <v>0.04304599221393968</v>
+        <v>8.365002012165495E-05</v>
       </c>
       <c r="T7">
-        <v>0.04304599221393968</v>
+        <v>5.686386780590164E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J8">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188809412900946</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N8">
-        <v>0.188809412900946</v>
+        <v>0.034127</v>
       </c>
       <c r="O8">
-        <v>0.001765855969444405</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P8">
-        <v>0.001765855969444405</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q8">
-        <v>4.153536961025956</v>
+        <v>0.009960920506</v>
       </c>
       <c r="R8">
-        <v>4.153536961025956</v>
+        <v>0.08964828455400001</v>
       </c>
       <c r="S8">
-        <v>0.001439460082730867</v>
+        <v>2.969078286912139E-06</v>
       </c>
       <c r="T8">
-        <v>0.001439460082730867</v>
+        <v>3.027493746567038E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J9">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.4832128187357</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N9">
-        <v>47.4832128187357</v>
+        <v>146.362926</v>
       </c>
       <c r="O9">
-        <v>0.4440907554135159</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P9">
-        <v>0.4440907554135159</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q9">
-        <v>1044.562749497814</v>
+        <v>42.72011811502801</v>
       </c>
       <c r="R9">
-        <v>1044.562749497814</v>
+        <v>384.4810630352521</v>
       </c>
       <c r="S9">
-        <v>0.3620062601870534</v>
+        <v>0.01273370016689215</v>
       </c>
       <c r="T9">
-        <v>0.3620062601870534</v>
+        <v>0.01298423076139872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J10">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.2502954250811</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N10">
-        <v>59.2502954250811</v>
+        <v>178.849414</v>
       </c>
       <c r="O10">
-        <v>0.5541433886170396</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P10">
-        <v>0.5541433886170396</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q10">
-        <v>1303.421732098127</v>
+        <v>52.20220925949201</v>
       </c>
       <c r="R10">
-        <v>1303.421732098127</v>
+        <v>469.819883335428</v>
       </c>
       <c r="S10">
-        <v>0.4517170719616608</v>
+        <v>0.01556005250195915</v>
       </c>
       <c r="T10">
-        <v>0.4517170719616608</v>
+        <v>0.01586619047857061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.22496521825007</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
-        <v>1.22496521825007</v>
+        <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.04539140943373137</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J11">
-        <v>0.04539140943373137</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.188809412900946</v>
+        <v>0.271596</v>
       </c>
       <c r="N11">
-        <v>0.188809412900946</v>
+        <v>0.814788</v>
       </c>
       <c r="O11">
-        <v>0.001765855969444405</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P11">
-        <v>0.001765855969444405</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q11">
-        <v>0.2312849636818749</v>
+        <v>0.237818691864</v>
       </c>
       <c r="R11">
-        <v>0.2312849636818749</v>
+        <v>2.140368226776</v>
       </c>
       <c r="S11">
-        <v>8.015469131004964E-05</v>
+        <v>7.08872552300691E-05</v>
       </c>
       <c r="T11">
-        <v>8.015469131004964E-05</v>
+        <v>7.228193438561442E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.22496521825007</v>
+        <v>3.540639</v>
       </c>
       <c r="H12">
-        <v>1.22496521825007</v>
+        <v>10.621917</v>
       </c>
       <c r="I12">
-        <v>0.04539140943373137</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J12">
-        <v>0.04539140943373137</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.4832128187357</v>
+        <v>0.320495</v>
       </c>
       <c r="N12">
-        <v>47.4832128187357</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O12">
-        <v>0.4440907554135159</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P12">
-        <v>0.4440907554135159</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q12">
-        <v>58.1652841537171</v>
+        <v>1.134757096305</v>
       </c>
       <c r="R12">
-        <v>58.1652841537171</v>
+        <v>6.808542577830001</v>
       </c>
       <c r="S12">
-        <v>0.02015790530470996</v>
+        <v>0.0003382400907154316</v>
       </c>
       <c r="T12">
-        <v>0.02015790530470996</v>
+        <v>0.0002299298885657932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.22496521825007</v>
+        <v>3.540639</v>
       </c>
       <c r="H13">
-        <v>1.22496521825007</v>
+        <v>10.621917</v>
       </c>
       <c r="I13">
-        <v>0.04539140943373137</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J13">
-        <v>0.04539140943373137</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>59.2502954250811</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N13">
-        <v>59.2502954250811</v>
+        <v>0.034127</v>
       </c>
       <c r="O13">
-        <v>0.5541433886170396</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P13">
-        <v>0.5541433886170396</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q13">
-        <v>72.5795510667656</v>
+        <v>0.040277129051</v>
       </c>
       <c r="R13">
-        <v>72.5795510667656</v>
+        <v>0.362494161459</v>
       </c>
       <c r="S13">
-        <v>0.02515334943771136</v>
+        <v>1.200551186533907E-05</v>
       </c>
       <c r="T13">
-        <v>0.02515334943771136</v>
+        <v>1.224171563844182E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.02960683953876</v>
+        <v>3.540639</v>
       </c>
       <c r="H14">
-        <v>1.02960683953876</v>
+        <v>10.621917</v>
       </c>
       <c r="I14">
-        <v>0.03815235315500464</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J14">
-        <v>0.03815235315500464</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188809412900946</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N14">
-        <v>0.188809412900946</v>
+        <v>146.362926</v>
       </c>
       <c r="O14">
-        <v>0.001765855969444405</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P14">
-        <v>0.001765855969444405</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q14">
-        <v>0.1943994628921118</v>
+        <v>172.739427983238</v>
       </c>
       <c r="R14">
-        <v>0.1943994628921118</v>
+        <v>1554.654851849142</v>
       </c>
       <c r="S14">
-        <v>6.737156056711604E-05</v>
+        <v>0.05148890452541226</v>
       </c>
       <c r="T14">
-        <v>6.737156056711604E-05</v>
+        <v>0.05250192868117044</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.02960683953876</v>
+        <v>3.540639</v>
       </c>
       <c r="H15">
-        <v>1.02960683953876</v>
+        <v>10.621917</v>
       </c>
       <c r="I15">
-        <v>0.03815235315500464</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J15">
-        <v>0.03815235315500464</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.4832128187357</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N15">
-        <v>47.4832128187357</v>
+        <v>178.849414</v>
       </c>
       <c r="O15">
-        <v>0.4440907554135159</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P15">
-        <v>0.4440907554135159</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q15">
-        <v>48.8890406814448</v>
+        <v>211.080403445182</v>
       </c>
       <c r="R15">
-        <v>48.8890406814448</v>
+        <v>1899.723631006638</v>
       </c>
       <c r="S15">
-        <v>0.01694310733340925</v>
+        <v>0.0629173018983778</v>
       </c>
       <c r="T15">
-        <v>0.01694310733340925</v>
+        <v>0.06415517532422879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.540639</v>
+      </c>
+      <c r="H16">
+        <v>10.621917</v>
+      </c>
+      <c r="I16">
+        <v>0.1150430856889177</v>
+      </c>
+      <c r="J16">
+        <v>0.1171915486778959</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.271596</v>
+      </c>
+      <c r="N16">
+        <v>0.814788</v>
+      </c>
+      <c r="O16">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P16">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q16">
+        <v>0.9616233898440001</v>
+      </c>
+      <c r="R16">
+        <v>8.654610508595999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002866336625468365</v>
+      </c>
+      <c r="T16">
+        <v>0.0002922730682924001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H17">
+        <v>70.271782</v>
+      </c>
+      <c r="I17">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J17">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.320495</v>
+      </c>
+      <c r="N17">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P17">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q17">
+        <v>7.507251590696668</v>
+      </c>
+      <c r="R17">
+        <v>45.04350954418</v>
+      </c>
+      <c r="S17">
+        <v>0.002237706613449816</v>
+      </c>
+      <c r="T17">
+        <v>0.001521155080065087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H18">
+        <v>70.271782</v>
+      </c>
+      <c r="I18">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J18">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.034127</v>
+      </c>
+      <c r="O18">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P18">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q18">
+        <v>0.2664627893682222</v>
+      </c>
+      <c r="R18">
+        <v>2.398165104314</v>
+      </c>
+      <c r="S18">
+        <v>7.942527818655713E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.098793962055763E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H19">
+        <v>70.271782</v>
+      </c>
+      <c r="I19">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J19">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N19">
+        <v>146.362926</v>
+      </c>
+      <c r="O19">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P19">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q19">
+        <v>1142.798180972682</v>
+      </c>
+      <c r="R19">
+        <v>10285.18362875413</v>
+      </c>
+      <c r="S19">
+        <v>0.340636918385691</v>
+      </c>
+      <c r="T19">
+        <v>0.3473388171704558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H20">
+        <v>70.271782</v>
+      </c>
+      <c r="I20">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J20">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N20">
+        <v>178.849414</v>
+      </c>
+      <c r="O20">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P20">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q20">
+        <v>1396.45189238175</v>
+      </c>
+      <c r="R20">
+        <v>12568.06703143575</v>
+      </c>
+      <c r="S20">
+        <v>0.4162441603555169</v>
+      </c>
+      <c r="T20">
+        <v>0.424433602197794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H21">
+        <v>70.271782</v>
+      </c>
+      <c r="I21">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J21">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.271596</v>
+      </c>
+      <c r="N21">
+        <v>0.814788</v>
+      </c>
+      <c r="O21">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P21">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q21">
+        <v>6.361844968024001</v>
+      </c>
+      <c r="R21">
+        <v>57.256604712216</v>
+      </c>
+      <c r="S21">
+        <v>0.001896292189851687</v>
+      </c>
+      <c r="T21">
+        <v>0.001933601000602306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.731273</v>
+      </c>
+      <c r="I22">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J22">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.320495</v>
+      </c>
+      <c r="N22">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P22">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q22">
+        <v>0.3986181133783333</v>
+      </c>
+      <c r="R22">
+        <v>2.39170868027</v>
+      </c>
+      <c r="S22">
+        <v>0.0001188171700083931</v>
+      </c>
+      <c r="T22">
+        <v>8.07699010544474E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.731273</v>
+      </c>
+      <c r="I23">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J23">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.034127</v>
+      </c>
+      <c r="O23">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P23">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q23">
+        <v>0.01414857263011111</v>
+      </c>
+      <c r="R23">
+        <v>0.127337153671</v>
+      </c>
+      <c r="S23">
+        <v>4.217302985357472E-06</v>
+      </c>
+      <c r="T23">
+        <v>4.300276780113772E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.731273</v>
+      </c>
+      <c r="I24">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J24">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N24">
+        <v>146.362926</v>
+      </c>
+      <c r="O24">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P24">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q24">
+        <v>60.68000377608867</v>
+      </c>
+      <c r="R24">
+        <v>546.1200339847981</v>
+      </c>
+      <c r="S24">
+        <v>0.01808705144798707</v>
+      </c>
+      <c r="T24">
+        <v>0.01844290714528996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.731273</v>
+      </c>
+      <c r="I25">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J25">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N25">
+        <v>178.849414</v>
+      </c>
+      <c r="O25">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P25">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q25">
+        <v>74.14844328044687</v>
+      </c>
+      <c r="R25">
+        <v>667.335989524022</v>
+      </c>
+      <c r="S25">
+        <v>0.02210162532867332</v>
+      </c>
+      <c r="T25">
+        <v>0.02253646620450538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.731273</v>
+      </c>
+      <c r="I26">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J26">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.271596</v>
+      </c>
+      <c r="N26">
+        <v>0.814788</v>
+      </c>
+      <c r="O26">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P26">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q26">
+        <v>0.3377996072359999</v>
+      </c>
+      <c r="R26">
+        <v>3.040196465124</v>
+      </c>
+      <c r="S26">
+        <v>0.0001006888347886847</v>
+      </c>
+      <c r="T26">
+        <v>0.00010266984842252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.045475</v>
+      </c>
+      <c r="H27">
+        <v>2.09095</v>
+      </c>
+      <c r="I27">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J27">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.320495</v>
+      </c>
+      <c r="N27">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P27">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q27">
+        <v>0.3350695101250001</v>
+      </c>
+      <c r="R27">
+        <v>1.3402780405</v>
+      </c>
+      <c r="S27">
+        <v>9.987506742164787E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.526225355523352E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.045475</v>
+      </c>
+      <c r="H28">
+        <v>2.09095</v>
+      </c>
+      <c r="I28">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J28">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.034127</v>
+      </c>
+      <c r="O28">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P28">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q28">
+        <v>0.01189297510833333</v>
+      </c>
+      <c r="R28">
+        <v>0.07135785065</v>
+      </c>
+      <c r="S28">
+        <v>3.544970983321192E-06</v>
+      </c>
+      <c r="T28">
+        <v>2.409811271750658E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="H16">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="I16">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="J16">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N16">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O16">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P16">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q16">
-        <v>61.0045094143556</v>
-      </c>
-      <c r="R16">
-        <v>61.0045094143556</v>
-      </c>
-      <c r="S16">
-        <v>0.02114187426102827</v>
-      </c>
-      <c r="T16">
-        <v>0.02114187426102827</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.045475</v>
+      </c>
+      <c r="H29">
+        <v>2.09095</v>
+      </c>
+      <c r="I29">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J29">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N29">
+        <v>146.362926</v>
+      </c>
+      <c r="O29">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P29">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q29">
+        <v>51.00626001995001</v>
+      </c>
+      <c r="R29">
+        <v>306.0375601197001</v>
+      </c>
+      <c r="S29">
+        <v>0.01520357270501324</v>
+      </c>
+      <c r="T29">
+        <v>0.01033513138691381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.045475</v>
+      </c>
+      <c r="H30">
+        <v>2.09095</v>
+      </c>
+      <c r="I30">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J30">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N30">
+        <v>178.849414</v>
+      </c>
+      <c r="O30">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P30">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q30">
+        <v>62.32753036721667</v>
+      </c>
+      <c r="R30">
+        <v>373.9651822033001</v>
+      </c>
+      <c r="S30">
+        <v>0.01857813411709201</v>
+      </c>
+      <c r="T30">
+        <v>0.01262910111651185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.045475</v>
+      </c>
+      <c r="H31">
+        <v>2.09095</v>
+      </c>
+      <c r="I31">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J31">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.271596</v>
+      </c>
+      <c r="N31">
+        <v>0.814788</v>
+      </c>
+      <c r="O31">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P31">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q31">
+        <v>0.2839468281</v>
+      </c>
+      <c r="R31">
+        <v>1.7036809686</v>
+      </c>
+      <c r="S31">
+        <v>8.463679249738645E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.753465896466654E-05</v>
       </c>
     </row>
   </sheetData>
